--- a/snapshot_report.xlsx
+++ b/snapshot_report.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -39,11 +39,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
   </fills>
@@ -64,7 +59,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -461,8 +456,8 @@
     <col width="9" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="9" customWidth="1" min="21" max="21"/>
-    <col width="9" customWidth="1" min="22" max="22"/>
-    <col width="9" customWidth="1" min="23" max="23"/>
+    <col width="18" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
     <col width="9" customWidth="1" min="24" max="24"/>
     <col width="9" customWidth="1" min="25" max="25"/>
     <col width="9" customWidth="1" min="26" max="26"/>
@@ -659,17 +654,17 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
@@ -690,24 +685,24 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>18.8</v>
+        <v>18</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="M3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>12.6</v>
+        <v>12</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
@@ -718,14 +713,14 @@
         <v>0</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>14.7</v>
+        <v>14</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U3" s="2" t="n">
@@ -736,17 +731,17 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>11.4</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
@@ -767,24 +762,24 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>19.4</v>
+        <v>18</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>13.1</v>
+        <v>12</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
@@ -795,14 +790,14 @@
         <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>15.3</v>
+        <v>14</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U4" s="2" t="n">
@@ -813,21 +808,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>15</v>
@@ -844,24 +839,24 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>13.6</v>
+        <v>12</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
@@ -872,39 +867,43 @@
         <v>0</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>15.9</v>
+        <v>14</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>R1/60</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>12.6</v>
+        <v>10.5</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>15</v>
@@ -918,27 +917,27 @@
         </is>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>20.6</v>
+        <v>18</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>14.1</v>
+        <v>12</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
@@ -949,39 +948,43 @@
         <v>0</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>R1/120 R2/60</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>13.2</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>15</v>
@@ -995,27 +998,27 @@
         </is>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>21.2</v>
+        <v>18</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>14.6</v>
+        <v>12</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
@@ -1026,45 +1029,49 @@
         <v>0</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>17.1</v>
+        <v>14</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>R1/180 R2/120 R3/60</t>
+        </is>
+      </c>
       <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>13.8</v>
+        <v>11.5</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -1072,27 +1079,27 @@
         </is>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>21.8</v>
+        <v>18</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>15.1</v>
+        <v>12</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
@@ -1103,45 +1110,53 @@
         <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>17.7</v>
+        <v>14</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>R1/240 R2/180 R3/120</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>R4/60 R5/60</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>14.4</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
@@ -1149,27 +1164,27 @@
         </is>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>22.4</v>
+        <v>18</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>15.6</v>
+        <v>12</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
@@ -1180,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>18.3</v>
+        <v>14</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
@@ -1191,20 +1206,28 @@
         </is>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>R2/240 R3/180 R5/60</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>R1/60 R4/120</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
@@ -1212,13 +1235,13 @@
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
@@ -1226,27 +1249,27 @@
         </is>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>16.1</v>
+        <v>12</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
@@ -1254,13 +1277,13 @@
         </is>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>18.9</v>
+        <v>14</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
@@ -1268,20 +1291,28 @@
         </is>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>R1/59 R4/60 R5/120</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>R2/60 R3/59</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>15.6</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
@@ -1289,13 +1320,13 @@
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
@@ -1303,27 +1334,27 @@
         </is>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>23.6</v>
+        <v>18</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>16.6</v>
+        <v>12</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
@@ -1331,13 +1362,13 @@
         </is>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
@@ -1345,20 +1376,28 @@
         </is>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>R1/119 R4/120 R5/180</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>R2/120 R3/119</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>16.2</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
@@ -1366,13 +1405,13 @@
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0</v>
+        <v>4.98</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
@@ -1380,27 +1419,27 @@
         </is>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>24.2</v>
+        <v>18</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>17.1</v>
+        <v>12</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
@@ -1408,13 +1447,13 @@
         </is>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>20.1</v>
+        <v>14</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
@@ -1422,20 +1461,28 @@
         </is>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>R1/179 R2/60 R3/58</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>R4/58 R5/60</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>16.8</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
@@ -1443,13 +1490,13 @@
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0</v>
+        <v>5.98</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
@@ -1457,27 +1504,27 @@
         </is>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>24.8</v>
+        <v>18</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>17.6</v>
+        <v>12</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
@@ -1485,13 +1532,13 @@
         </is>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>20.7</v>
+        <v>14</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
@@ -1499,17 +1546,25 @@
         </is>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>R1/239 R2/120 R3/118</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>R4/118 R5/120</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>17.4</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>22</v>
@@ -1520,13 +1575,13 @@
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0</v>
+        <v>5.98</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
@@ -1534,41 +1589,41 @@
         </is>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>18.1</v>
+        <v>13</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>21.3</v>
+        <v>14</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
@@ -1576,14 +1631,22 @@
         </is>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+        <v>4.02</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>R2/60 R3/60 R5/60</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>R1/61 R4/60</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>18</v>
@@ -1597,13 +1660,13 @@
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
@@ -1611,41 +1674,41 @@
         </is>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>18.6</v>
+        <v>14</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>21.9</v>
+        <v>14</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
@@ -1653,17 +1716,25 @@
         </is>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+        <v>5.02</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>R1/1 R3/120 R5/120</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>R2/1 R4/120</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>18.6</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>22</v>
@@ -1674,73 +1745,81 @@
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F16" s="2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="N16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>19.1</v>
-      </c>
       <c r="O16" s="2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>22.5</v>
+        <v>14</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
+        <v>5.02</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>R1/61 R2/60 R4/60</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>R3/60 R5/59</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>19.2</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>22</v>
@@ -1751,73 +1830,81 @@
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0</v>
+        <v>8.02</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>15</v>
+        <v>20.5</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0</v>
+        <v>5.49</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>19.6</v>
+        <v>16</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>23.1</v>
+        <v>14</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+        <v>5.02</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>R2/60 R4/121 R5/0</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>R1/0 R3/60</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>19.8</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>22</v>
@@ -1828,73 +1915,81 @@
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0</v>
+        <v>8.02</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>15</v>
+        <v>21.5</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0</v>
+        <v>6.49</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>20.1</v>
+        <v>17</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>4.03</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>23.7</v>
+        <v>14</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+        <v>5.52</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>R2/120 R4/181 R5/60</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>R1/60 R3/120</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>20.4</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>22</v>
@@ -1905,73 +2000,81 @@
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0</v>
+        <v>8.02</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>20.6</v>
+        <v>18</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0</v>
+        <v>5.03</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+        <v>6.02</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>R2/180 R4/241 R5/120</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>R3/60</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>22</v>
@@ -1982,73 +2085,81 @@
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0</v>
+        <v>8.02</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>15</v>
+        <v>23.5</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0</v>
+        <v>8.49</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>21.1</v>
+        <v>19</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>6.03</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
+        <v>6.52</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>R2/240 R4/301 R5/180</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>R3/120</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>21.6</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>22</v>
@@ -2059,70 +2170,78 @@
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0</v>
+        <v>8.02</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>15</v>
+        <v>24.5</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0</v>
+        <v>9.49</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>21.6</v>
+        <v>20</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0</v>
+        <v>7.03</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
+        <v>6.52</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>R2/300 R4/361</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>R3/180</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>22</v>
@@ -2136,27 +2255,27 @@
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0</v>
+        <v>8.02</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
@@ -2164,42 +2283,46 @@
         </is>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0</v>
+        <v>4.49</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>22.1</v>
+        <v>21</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="inlineStr"/>
+        <v>6.52</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>R3/60 R4/421</t>
+        </is>
+      </c>
       <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>22</v>
@@ -2213,27 +2336,27 @@
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0</v>
+        <v>9.02</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
@@ -2241,10 +2364,10 @@
         </is>
       </c>
       <c r="M23" s="2" t="n">
-        <v>0</v>
+        <v>5.49</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>22.6</v>
+        <v>21.5</v>
       </c>
       <c r="O23" s="2" t="n">
         <v>25</v>
@@ -2255,28 +2378,32 @@
         </is>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>0</v>
+        <v>8.52</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="inlineStr"/>
+        <v>6.52</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>R1/60 R3/120 R4/59</t>
+        </is>
+      </c>
       <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>22</v>
@@ -2290,27 +2417,27 @@
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0</v>
+        <v>10.02</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>MID</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
@@ -2318,10 +2445,10 @@
         </is>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0</v>
+        <v>6.49</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>23.1</v>
+        <v>22</v>
       </c>
       <c r="O24" s="2" t="n">
         <v>25</v>
@@ -2332,28 +2459,32 @@
         </is>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>9.02</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="inlineStr"/>
+        <v>6.52</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>R1/120 R3/180 R4/119</t>
+        </is>
+      </c>
       <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>22</v>
@@ -2367,13 +2498,13 @@
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0</v>
+        <v>11.02</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
@@ -2381,13 +2512,13 @@
         </is>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
@@ -2395,10 +2526,10 @@
         </is>
       </c>
       <c r="M25" s="2" t="n">
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>23.6</v>
+        <v>22.5</v>
       </c>
       <c r="O25" s="2" t="n">
         <v>25</v>
@@ -2409,28 +2540,36 @@
         </is>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0</v>
+        <v>9.52</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+        <v>6.52</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>R1/180 R3/240 R4/179</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>R2/60 R5/60</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>22</v>
@@ -2444,13 +2583,13 @@
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0</v>
+        <v>12.02</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
@@ -2458,13 +2597,13 @@
         </is>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
@@ -2472,10 +2611,10 @@
         </is>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0</v>
+        <v>8.49</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>24.1</v>
+        <v>23</v>
       </c>
       <c r="O26" s="2" t="n">
         <v>25</v>
@@ -2486,28 +2625,36 @@
         </is>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>10.02</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+        <v>6.52</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>R1/240 R3/300 R4/239</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>R2/120 R5/120</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>22</v>
@@ -2521,13 +2668,13 @@
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0</v>
+        <v>12.02</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
@@ -2535,13 +2682,13 @@
         </is>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0</v>
+        <v>10.47</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
@@ -2549,10 +2696,10 @@
         </is>
       </c>
       <c r="M27" s="2" t="n">
-        <v>0</v>
+        <v>8.49</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>24.6</v>
+        <v>23.5</v>
       </c>
       <c r="O27" s="2" t="n">
         <v>25</v>
@@ -2563,28 +2710,36 @@
         </is>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>0</v>
+        <v>10.52</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+        <v>7.02</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>R2/60 R4/299 R5/60</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>R1/60 R3/60</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>22</v>
@@ -2598,13 +2753,13 @@
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0</v>
+        <v>12.02</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
@@ -2612,13 +2767,13 @@
         </is>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>10.97</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
@@ -2626,10 +2781,10 @@
         </is>
       </c>
       <c r="M28" s="2" t="n">
-        <v>0</v>
+        <v>8.49</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O28" s="2" t="n">
         <v>25</v>
@@ -2640,28 +2795,36 @@
         </is>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>11.02</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+        <v>7.52</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>R2/120 R4/359 R5/120</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>R1/120 R3/120</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>22</v>
@@ -2675,13 +2838,13 @@
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0</v>
+        <v>12.03</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
@@ -2689,13 +2852,13 @@
         </is>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0</v>
+        <v>10.97</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
@@ -2703,10 +2866,10 @@
         </is>
       </c>
       <c r="M29" s="2" t="n">
-        <v>0</v>
+        <v>8.51</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="O29" s="2" t="n">
         <v>25</v>
@@ -2717,24 +2880,28 @@
         </is>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0</v>
+        <v>11.02</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0</v>
+        <v>7.52</v>
       </c>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>R2/61 R4/61</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/snapshot_report.xlsx
+++ b/snapshot_report.xlsx
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>28</v>
@@ -805,7 +805,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>R1/61</t>
+          <t>R1/60</t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>27.5</v>
@@ -886,7 +886,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>R1/121 R2/60 R5/60</t>
+          <t>R1/120 R2/60 R5/60</t>
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>27</v>
@@ -967,7 +967,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>R1/181 R2/120 R5/120</t>
+          <t>R1/180 R2/120 R5/120</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>26.5</v>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>R1/241 R2/180 R5/180</t>
+          <t>R1/240 R2/180 R5/180</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>26</v>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>26.5</v>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>4.01</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>27</v>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>27.5</v>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>28</v>
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>7.01</v>
+        <v>7</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>28</v>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>8.01</v>
+        <v>8</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>28</v>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>9.01</v>
+        <v>9</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>28</v>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>10.01</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>28</v>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>10.51</v>
+        <v>10.52</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>27.8</v>
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="I17" s="2" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="J17" s="2" t="n">
         <v>29</v>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>R2/30 R3/120 R4/300</t>
+          <t>R2/29 R3/120 R4/300</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>10.51</v>
+        <v>10.52</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>27.3</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="I18" s="2" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="J18" s="2" t="n">
         <v>29.5</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>R2/90 R4/360 R5/60</t>
+          <t>R2/89 R4/360 R5/60</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>10.51</v>
+        <v>10.52</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>26.8</v>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="I19" s="2" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="J19" s="2" t="n">
         <v>30</v>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>R2/150 R4/420 R5/60</t>
+          <t>R2/149 R4/420 R5/60</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>10.51</v>
+        <v>10.52</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>27.3</v>
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="I20" s="2" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="J20" s="2" t="n">
         <v>29.7</v>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>10.51</v>
+        <v>10.52</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>27.8</v>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="I21" s="2" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="J21" s="2" t="n">
         <v>28.7</v>
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>11.51</v>
+        <v>11.52</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>28</v>
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="I22" s="2" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>27.7</v>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>12.51</v>
+        <v>12.52</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>28</v>
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="I23" s="2" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="J23" s="2" t="n">
         <v>26.7</v>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>12.76</v>
+        <v>12.77</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>27.7</v>
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="I24" s="2" t="n">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>25.7</v>
@@ -2510,7 +2510,7 @@
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>12.76</v>
+        <v>12.77</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>27.2</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="I25" s="2" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="J25" s="2" t="n">
         <v>24.7</v>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>13.49</v>
+        <v>13.5</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>26.7</v>
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="I26" s="2" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="J26" s="2" t="n">
         <v>25.2</v>
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>13.77</v>
+        <v>13.78</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>26.2</v>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="I27" s="2" t="n">
-        <v>5.08</v>
+        <v>5.07</v>
       </c>
       <c r="J27" s="2" t="n">
         <v>25.7</v>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>13.77</v>
+        <v>13.78</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>25.7</v>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="I28" s="2" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="J28" s="2" t="n">
         <v>26.2</v>

--- a/snapshot_report.xlsx
+++ b/snapshot_report.xlsx
@@ -1137,12 +1137,12 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>R2/240 R3/60 R5/240</t>
+          <t>R3/60 R5/240</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>R1/60 R4/120</t>
+          <t>R1/60 R4/0</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>R2/100 R3/300 R4/105</t>
+          <t>R2/100 R3/300</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
